--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,103 +40,112 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>selfish</t>
   </si>
   <si>
     <t>struggling</t>
   </si>
   <si>
-    <t>selfish</t>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>sc</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>low</t>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>shortage</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>empty</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>isolation</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>drop</t>
+    <t>lower</t>
   </si>
   <si>
     <t>demand</t>
@@ -145,235 +154,217 @@
     <t>outbreak</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>corona</t>
   </si>
   <si>
-    <t>co</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>heroes</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>safety</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
     <t>strong</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>important</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>clean</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>share</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>share</t>
+    <t>key</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>give</t>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>available</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>available</t>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>online</t>
   </si>
   <si>
     <t>want</t>
   </si>
   <si>
-    <t>online</t>
+    <t>read</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>first</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>first</t>
+    <t>hands</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>retail</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>san</t>
   </si>
   <si>
     <t>local</t>
   </si>
   <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>san</t>
+    <t>social</t>
   </si>
   <si>
     <t>consumer</t>
@@ -382,34 +373,25 @@
     <t>shop</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
     <t>us</t>
   </si>
   <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>amp</t>
+    <t>time</t>
   </si>
   <si>
     <t>food</t>
   </si>
   <si>
     <t>toilet</t>
-  </si>
-  <si>
-    <t>prices</t>
   </si>
 </sst>
 </file>
@@ -767,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,10 +757,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -839,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -857,16 +839,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -878,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -886,13 +868,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -904,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -936,13 +918,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9411764705882353</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -954,19 +936,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -986,13 +968,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.84</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1004,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1028,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1036,13 +1018,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8055555555555556</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1057,16 +1039,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.8392857142857143</v>
+        <v>0.859375</v>
       </c>
       <c r="L7">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="M7">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1086,13 +1068,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7692307692307693</v>
+        <v>0.7191780821917808</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1104,19 +1086,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8309859154929577</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1128,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1136,13 +1118,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7368421052631579</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1154,19 +1136,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8125</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1178,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1186,13 +1168,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7226027397260274</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C10">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>211</v>
+        <v>25</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1204,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1228,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1236,13 +1218,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6896551724137931</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1257,7 +1239,7 @@
         <v>9</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>0.8085106382978723</v>
@@ -1286,13 +1268,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6410256410256411</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1304,19 +1286,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.8</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L12">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1328,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1336,13 +1318,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6153846153846154</v>
+        <v>0.65</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1354,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1378,7 +1360,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1386,13 +1368,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5806451612903226</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1404,19 +1386,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.7924528301886793</v>
+        <v>0.775</v>
       </c>
       <c r="L14">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="M14">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1428,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1457,16 +1439,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.7843137254901961</v>
+        <v>0.7735849056603774</v>
       </c>
       <c r="L15">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1478,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1486,13 +1468,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5652173913043478</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1504,19 +1486,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1528,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1536,13 +1518,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1554,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.7272727272727273</v>
+        <v>0.73125</v>
       </c>
       <c r="L17">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="M17">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1578,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1586,13 +1568,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1607,16 +1589,16 @@
         <v>18</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1628,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1636,13 +1618,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4864864864864865</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1654,19 +1636,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.70625</v>
+        <v>0.7</v>
       </c>
       <c r="L19">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="M19">
-        <v>113</v>
+        <v>35</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1678,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1686,13 +1668,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4838709677419355</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1704,19 +1686,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.6808510638297872</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L20">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1728,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1736,37 +1718,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.475</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>19</v>
       </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>21</v>
-      </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.6666666666666666</v>
+        <v>0.6702127659574468</v>
       </c>
       <c r="L21">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1778,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1786,13 +1768,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4705882352941176</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C22">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1804,19 +1786,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.6631853785900783</v>
+        <v>0.6511627906976745</v>
       </c>
       <c r="L22">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>254</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1828,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1836,13 +1818,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4594594594594595</v>
+        <v>0.4466019417475728</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>231</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1851,22 +1833,22 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.6296296296296297</v>
+        <v>0.6475195822454308</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>248</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1878,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>10</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1886,13 +1868,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.44</v>
+        <v>0.4429530201342282</v>
       </c>
       <c r="C24">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D24">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1904,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.625</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L24">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1928,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1936,13 +1918,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.439922480620155</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C25">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>227</v>
+        <v>32</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1954,19 +1936,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>289</v>
+        <v>43</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K25">
-        <v>0.625</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M25">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1978,7 +1960,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1986,13 +1968,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4181818181818182</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2004,19 +1986,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K26">
-        <v>0.6222222222222222</v>
+        <v>0.625</v>
       </c>
       <c r="L26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2028,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2036,13 +2018,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4161073825503356</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C27">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2054,19 +2036,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>87</v>
+        <v>36</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K27">
-        <v>0.6111111111111112</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2086,13 +2068,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3896103896103896</v>
+        <v>0.3783783783783784</v>
       </c>
       <c r="C28">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="D28">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2104,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>0.6071428571428571</v>
+        <v>0.5852941176470589</v>
       </c>
       <c r="L28">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="M28">
-        <v>17</v>
+        <v>199</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2128,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2136,13 +2118,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3728813559322034</v>
+        <v>0.375</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D29">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2154,19 +2136,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>0.6046511627906976</v>
+        <v>0.5728813559322034</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2178,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>17</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2186,13 +2168,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3544973544973545</v>
+        <v>0.3492063492063492</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D30">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2204,19 +2186,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K30">
-        <v>0.5941176470588235</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>202</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2228,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>138</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2236,13 +2218,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3333333333333333</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2254,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K31">
-        <v>0.5842696629213483</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L31">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2278,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2286,13 +2268,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.2777777777777778</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C32">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2304,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K32">
-        <v>0.58</v>
+        <v>0.5393258426966292</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2328,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2336,13 +2318,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.2745098039215687</v>
+        <v>0.3375</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D33">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2354,19 +2336,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K33">
-        <v>0.5294117647058824</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M33">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2378,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2386,38 +2368,38 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.2625</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C34">
+        <v>28</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>62</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34">
+        <v>0.525</v>
+      </c>
+      <c r="L34">
         <v>21</v>
       </c>
-      <c r="D34">
+      <c r="M34">
         <v>21</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>59</v>
-      </c>
-      <c r="J34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K34">
-        <v>0.5288135593220339</v>
-      </c>
-      <c r="L34">
-        <v>156</v>
-      </c>
-      <c r="M34">
-        <v>156</v>
-      </c>
       <c r="N34">
         <v>1</v>
       </c>
@@ -2428,7 +2410,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>139</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2436,13 +2418,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2203389830508475</v>
+        <v>0.2987012987012987</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2454,19 +2436,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K35">
-        <v>0.5128205128205128</v>
+        <v>0.515625</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2478,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2486,37 +2468,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1662198391420912</v>
+        <v>0.2908366533864542</v>
       </c>
       <c r="C36">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="D36">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>311</v>
+        <v>178</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K36">
-        <v>0.5104602510460251</v>
+        <v>0.502092050209205</v>
       </c>
       <c r="L36">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M36">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2528,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2536,37 +2518,37 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.07926829268292683</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C37">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E37">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K37">
-        <v>0.5068493150684932</v>
+        <v>0.5</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2578,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2586,37 +2568,37 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.009528585757271816</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C38">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D38">
-        <v>168</v>
+        <v>13</v>
       </c>
       <c r="E38">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>1975</v>
+        <v>43</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="K38">
-        <v>0.46875</v>
+        <v>0.4931506849315068</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M38">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2628,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2636,37 +2618,37 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.007334183673469388</v>
+        <v>0.1689008042895442</v>
       </c>
       <c r="C39">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="E39">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.26</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>3113</v>
+        <v>310</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="K39">
-        <v>0.4642857142857143</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="L39">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M39">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2678,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2686,115 +2668,187 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.006682258603407952</v>
+        <v>0.1204819277108434</v>
       </c>
       <c r="C40">
         <v>20</v>
       </c>
       <c r="D40">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="E40">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>2973</v>
+        <v>146</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="K40">
-        <v>0.4516129032258064</v>
+        <v>0.459016393442623</v>
       </c>
       <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.01226993865030675</v>
+      </c>
+      <c r="C41">
         <v>14</v>
       </c>
-      <c r="M40">
-        <v>14</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>0.59</v>
+      </c>
+      <c r="F41">
+        <v>0.41</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1127</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="L41">
+        <v>32</v>
+      </c>
+      <c r="M41">
+        <v>32</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.008534136546184739</v>
+      </c>
+      <c r="C42">
         <v>17</v>
       </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K41">
+      <c r="D42">
+        <v>168</v>
+      </c>
+      <c r="E42">
+        <v>0.9</v>
+      </c>
+      <c r="F42">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1975</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K42">
         <v>0.4307692307692308</v>
       </c>
-      <c r="L41">
+      <c r="L42">
         <v>28</v>
       </c>
-      <c r="M41">
+      <c r="M42">
         <v>28</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="K42">
-        <v>0.425</v>
-      </c>
-      <c r="L42">
-        <v>17</v>
-      </c>
-      <c r="M42">
-        <v>17</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.007712944332662642</v>
+      </c>
+      <c r="C43">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:17">
+      <c r="D43">
+        <v>148</v>
+      </c>
+      <c r="E43">
+        <v>0.84</v>
+      </c>
+      <c r="F43">
+        <v>0.16</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>2959</v>
+      </c>
       <c r="J43" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K43">
-        <v>0.4</v>
+        <v>0.3829787234042553</v>
       </c>
       <c r="L43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2806,21 +2860,45 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.007694773966014748</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>106</v>
+      </c>
+      <c r="E44">
+        <v>0.77</v>
+      </c>
+      <c r="F44">
+        <v>0.23</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>3095</v>
+      </c>
       <c r="J44" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K44">
-        <v>0.4</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2832,15 +2910,15 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K45">
-        <v>0.3809523809523809</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L45">
         <v>16</v>
@@ -2858,21 +2936,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K46">
-        <v>0.3617021276595745</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="L46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2884,21 +2962,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="K47">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="L47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="M47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2910,21 +2988,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="K48">
-        <v>0.3442622950819672</v>
+        <v>0.2047244094488189</v>
       </c>
       <c r="L48">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M48">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2936,21 +3014,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K49">
-        <v>0.3055555555555556</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L49">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="M49">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2962,21 +3040,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>50</v>
+        <v>342</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K50">
-        <v>0.2372881355932203</v>
+        <v>0.1789473684210526</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2988,47 +3066,47 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>45</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K51">
-        <v>0.2203389830508475</v>
+        <v>0.1711711711711712</v>
       </c>
       <c r="L51">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M51">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K52">
-        <v>0.2105263157894737</v>
+        <v>0.1634615384615385</v>
       </c>
       <c r="L52">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="M52">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3040,47 +3118,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>75</v>
+        <v>348</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K53">
-        <v>0.1774580335731415</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="L53">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N53">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O53">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q53">
-        <v>343</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K54">
-        <v>0.1755725190839695</v>
+        <v>0.1530612244897959</v>
       </c>
       <c r="L54">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M54">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3092,21 +3170,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>108</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K55">
-        <v>0.1682692307692308</v>
+        <v>0.1450381679389313</v>
       </c>
       <c r="L55">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="M55">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3118,21 +3196,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>346</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="K56">
-        <v>0.1653543307086614</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L56">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M56">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3144,47 +3222,47 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>106</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="K57">
-        <v>0.154639175257732</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>82</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K58">
-        <v>0.1534883720930233</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="L58">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="M58">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3196,21 +3274,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K59">
-        <v>0.1509433962264151</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="L59">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M59">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3222,21 +3300,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="K60">
-        <v>0.1485148514851485</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3248,73 +3326,73 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>86</v>
+        <v>140</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K61">
-        <v>0.1358024691358025</v>
+        <v>0.1143497757847534</v>
       </c>
       <c r="L61">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="M61">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="N61">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>140</v>
+        <v>790</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K62">
-        <v>0.134020618556701</v>
+        <v>0.1042944785276074</v>
       </c>
       <c r="L62">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M62">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>84</v>
+        <v>292</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K63">
-        <v>0.1302325581395349</v>
+        <v>0.1006289308176101</v>
       </c>
       <c r="L63">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3326,21 +3404,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>187</v>
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="K64">
-        <v>0.125</v>
+        <v>0.09883720930232558</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -3352,99 +3430,99 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>98</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="K65">
-        <v>0.1181818181818182</v>
+        <v>0.09777777777777778</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M65">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="N65">
-        <v>0.87</v>
+        <v>0.99</v>
       </c>
       <c r="O65">
-        <v>0.13</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>97</v>
+        <v>812</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K66">
-        <v>0.1162790697674419</v>
+        <v>0.09297520661157024</v>
       </c>
       <c r="L66">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="M66">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>152</v>
+        <v>439</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K67">
-        <v>0.1159420289855072</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M67">
         <v>16</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K68">
-        <v>0.1069182389937107</v>
+        <v>0.0782608695652174</v>
       </c>
       <c r="L68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3456,579 +3534,345 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>142</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K69">
-        <v>0.1060606060606061</v>
+        <v>0.07716049382716049</v>
       </c>
       <c r="L69">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="M69">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="N69">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="O69">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>118</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>114</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>0.1048387096774194</v>
+        <v>0.07102539981185324</v>
       </c>
       <c r="L70">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="M70">
-        <v>13</v>
+        <v>168</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>111</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K71">
-        <v>0.1019036954087346</v>
+        <v>0.07027027027027027</v>
       </c>
       <c r="L71">
-        <v>91</v>
+        <v>13</v>
       </c>
       <c r="M71">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="N71">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>802</v>
+        <v>172</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K72">
-        <v>0.09888888888888889</v>
+        <v>0.06535947712418301</v>
       </c>
       <c r="L72">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="M72">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="N72">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="O72">
-        <v>0.01000000000000001</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>811</v>
+        <v>286</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K73">
-        <v>0.09523809523809523</v>
+        <v>0.05889145496535797</v>
       </c>
       <c r="L73">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="M73">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q73">
-        <v>133</v>
+        <v>815</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K74">
-        <v>0.08484848484848485</v>
+        <v>0.05752212389380531</v>
       </c>
       <c r="L74">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M74">
         <v>14</v>
       </c>
       <c r="N74">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
-        <v>151</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K75">
-        <v>0.08247422680412371</v>
+        <v>0.05639097744360902</v>
       </c>
       <c r="L75">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M75">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N75">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O75">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>445</v>
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K76">
-        <v>0.07882534775888717</v>
+        <v>0.04626334519572953</v>
       </c>
       <c r="L76">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="M76">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="N76">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>596</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>121</v>
+        <v>48</v>
       </c>
       <c r="K77">
-        <v>0.07567567567567568</v>
+        <v>0.04053177691309987</v>
       </c>
       <c r="L77">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="M77">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.84</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>171</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K78">
-        <v>0.0749063670411985</v>
+        <v>0.03556485355648536</v>
       </c>
       <c r="L78">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="M78">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q78">
-        <v>247</v>
+        <v>922</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K79">
-        <v>0.0705521472392638</v>
+        <v>0.02831858407079646</v>
       </c>
       <c r="L79">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>0.89</v>
       </c>
       <c r="O79">
-        <v>0.04000000000000004</v>
+        <v>0.11</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>303</v>
+        <v>549</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="K80">
-        <v>0.07035755478662054</v>
+        <v>0.02581051306263771</v>
       </c>
       <c r="L80">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="M80">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="N80">
-        <v>1</v>
+        <v>0.77</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="P80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q80">
-        <v>806</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K81">
-        <v>0.07015065913370998</v>
+        <v>0.01743679163034002</v>
       </c>
       <c r="L81">
-        <v>149</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="N81">
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="O81">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="P81" t="b">
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>1975</v>
-      </c>
-    </row>
-    <row r="82" spans="10:17">
-      <c r="J82" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="K82">
-        <v>0.06956521739130435</v>
-      </c>
-      <c r="L82">
-        <v>16</v>
-      </c>
-      <c r="M82">
-        <v>16</v>
-      </c>
-      <c r="N82">
-        <v>1</v>
-      </c>
-      <c r="O82">
-        <v>0</v>
-      </c>
-      <c r="P82" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q82">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="83" spans="10:17">
-      <c r="J83" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="K83">
-        <v>0.06209150326797386</v>
-      </c>
-      <c r="L83">
-        <v>19</v>
-      </c>
-      <c r="M83">
-        <v>21</v>
-      </c>
-      <c r="N83">
-        <v>0.9</v>
-      </c>
-      <c r="O83">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P83" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q83">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="84" spans="10:17">
-      <c r="J84" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="K84">
-        <v>0.05752212389380531</v>
-      </c>
-      <c r="L84">
-        <v>13</v>
-      </c>
-      <c r="M84">
-        <v>14</v>
-      </c>
-      <c r="N84">
-        <v>0.93</v>
-      </c>
-      <c r="O84">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P84" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q84">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="85" spans="10:17">
-      <c r="J85" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="K85">
-        <v>0.04034582132564841</v>
-      </c>
-      <c r="L85">
-        <v>14</v>
-      </c>
-      <c r="M85">
-        <v>16</v>
-      </c>
-      <c r="N85">
-        <v>0.88</v>
-      </c>
-      <c r="O85">
-        <v>0.12</v>
-      </c>
-      <c r="P85" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="86" spans="10:17">
-      <c r="J86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K86">
-        <v>0.0369290573372206</v>
-      </c>
-      <c r="L86">
-        <v>114</v>
-      </c>
-      <c r="M86">
-        <v>134</v>
-      </c>
-      <c r="N86">
-        <v>0.85</v>
-      </c>
-      <c r="O86">
-        <v>0.15</v>
-      </c>
-      <c r="P86" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q86">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="87" spans="10:17">
-      <c r="J87" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K87">
-        <v>0.03121748178980229</v>
-      </c>
-      <c r="L87">
-        <v>30</v>
-      </c>
-      <c r="M87">
-        <v>37</v>
-      </c>
-      <c r="N87">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="O87">
-        <v>0.1899999999999999</v>
-      </c>
-      <c r="P87" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q87">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="88" spans="10:17">
-      <c r="J88" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K88">
-        <v>0.02857142857142857</v>
-      </c>
-      <c r="L88">
-        <v>16</v>
-      </c>
-      <c r="M88">
-        <v>23</v>
-      </c>
-      <c r="N88">
-        <v>0.7</v>
-      </c>
-      <c r="O88">
-        <v>0.3</v>
-      </c>
-      <c r="P88" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q88">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="89" spans="10:17">
-      <c r="J89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K89">
-        <v>0.02045311516677156</v>
-      </c>
-      <c r="L89">
-        <v>65</v>
-      </c>
-      <c r="M89">
-        <v>88</v>
-      </c>
-      <c r="N89">
-        <v>0.74</v>
-      </c>
-      <c r="O89">
-        <v>0.26</v>
-      </c>
-      <c r="P89" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q89">
-        <v>3113</v>
-      </c>
-    </row>
-    <row r="90" spans="10:17">
-      <c r="J90" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="K90">
-        <v>0.01906412478336222</v>
-      </c>
-      <c r="L90">
-        <v>22</v>
-      </c>
-      <c r="M90">
-        <v>29</v>
-      </c>
-      <c r="N90">
-        <v>0.76</v>
-      </c>
-      <c r="O90">
-        <v>0.24</v>
-      </c>
-      <c r="P90" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q90">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/42/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="144">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,16 +40,22 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
     <t>arrested</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>warning</t>
+    <t>kill</t>
   </si>
   <si>
     <t>died</t>
@@ -58,340 +64,388 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>ridiculous</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>die</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
-    <t>problem</t>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>struggling</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>shortage</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>isolation</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>sc</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>shortage</t>
+    <t>empty</t>
   </si>
   <si>
     <t>fight</t>
   </si>
   <si>
-    <t>empty</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
-    <t>isolation</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>demand</t>
   </si>
   <si>
-    <t>outbreak</t>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>contest</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>toilet</t>
   </si>
   <si>
     <t>prices</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>toilet</t>
   </si>
 </sst>
 </file>
@@ -749,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -760,7 +814,7 @@
         <v>50</v>
       </c>
       <c r="J1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -821,10 +875,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -868,13 +922,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,19 +940,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K4">
-        <v>0.9565217391304348</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -910,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -918,13 +972,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.9705882352941176</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -936,19 +990,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -960,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -968,13 +1022,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -986,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K6">
-        <v>0.9230769230769231</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1018,13 +1072,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7307692307692307</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1036,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K7">
-        <v>0.859375</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L7">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="M7">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1060,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,13 +1122,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7191780821917808</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1086,19 +1140,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>0.8571428571428571</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1110,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1118,13 +1172,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6896551724137931</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1136,19 +1190,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K9">
-        <v>0.8292682926829268</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1160,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1168,13 +1222,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6578947368421053</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>213</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1186,19 +1240,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K10">
-        <v>0.8098591549295775</v>
+        <v>0.8203125</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1210,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1218,13 +1272,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6538461538461539</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1236,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1260,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1268,13 +1322,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6521739130434783</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1286,19 +1340,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1310,7 +1364,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1342,13 +1396,13 @@
         <v>61</v>
       </c>
       <c r="K13">
-        <v>0.7843137254901961</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1368,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6086956521739131</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="C14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1386,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>62</v>
       </c>
       <c r="K14">
-        <v>0.775</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L14">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="M14">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1410,7 +1464,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1418,13 +1472,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5666666666666667</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C15">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1442,13 +1496,13 @@
         <v>63</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>21</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1460,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1468,13 +1522,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5641025641025641</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1486,19 +1540,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>64</v>
       </c>
       <c r="K16">
-        <v>0.7407407407407407</v>
+        <v>0.8</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1510,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1518,13 +1572,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5483870967741935</v>
+        <v>0.6206896551724138</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1536,19 +1590,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>65</v>
       </c>
       <c r="K17">
-        <v>0.73125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1560,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1568,13 +1622,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5384615384615384</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1586,19 +1640,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K18">
-        <v>0.7142857142857143</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1610,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1618,13 +1672,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5333333333333333</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1636,19 +1690,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="K19">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1660,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1668,13 +1722,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5135135135135135</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1686,19 +1740,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="K20">
-        <v>0.6944444444444444</v>
+        <v>0.7452830188679245</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1710,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1718,37 +1772,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4722222222222222</v>
+        <v>0.5641025641025641</v>
       </c>
       <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>17</v>
-      </c>
-      <c r="D21">
-        <v>17</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="K21">
-        <v>0.6702127659574468</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1760,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1768,13 +1822,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4666666666666667</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1786,19 +1840,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="K22">
-        <v>0.6511627906976745</v>
+        <v>0.71875</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>115</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1810,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1818,13 +1872,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4466019417475728</v>
+        <v>0.5</v>
       </c>
       <c r="C23">
-        <v>230</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>231</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1833,22 +1887,22 @@
         <v>1</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>285</v>
+        <v>13</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K23">
-        <v>0.6475195822454308</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>248</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1860,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>135</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1868,13 +1922,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4429530201342282</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1886,31 +1940,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0.6363636363636364</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>14</v>
-      </c>
-      <c r="M24">
-        <v>14</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1918,13 +1972,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4266666666666667</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1936,19 +1990,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="K25">
-        <v>0.6296296296296297</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L25">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="M25">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1960,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1968,13 +2022,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4117647058823529</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1986,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="K26">
-        <v>0.625</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L26">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2010,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2018,13 +2072,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3898305084745763</v>
+        <v>0.4534883720930232</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="D27">
-        <v>23</v>
+        <v>234</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2036,19 +2090,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>75</v>
       </c>
       <c r="K27">
-        <v>0.5882352941176471</v>
+        <v>0.6710182767624021</v>
       </c>
       <c r="L27">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="M27">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2060,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>14</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2068,7 +2122,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3783783783783784</v>
+        <v>0.4516129032258064</v>
       </c>
       <c r="C28">
         <v>14</v>
@@ -2086,19 +2140,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J28" s="1" t="s">
         <v>76</v>
       </c>
       <c r="K28">
-        <v>0.5852941176470589</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2110,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>141</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2118,13 +2172,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.375</v>
+        <v>0.44</v>
       </c>
       <c r="C29">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2136,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>77</v>
       </c>
       <c r="K29">
-        <v>0.5728813559322034</v>
+        <v>0.64</v>
       </c>
       <c r="L29">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="M29">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2160,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>126</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2168,13 +2222,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.3492063492063492</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C30">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2186,19 +2240,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>123</v>
+        <v>17</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>78</v>
       </c>
       <c r="K30">
-        <v>0.5555555555555556</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2210,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2218,13 +2272,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3454545454545455</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2236,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K31">
-        <v>0.5416666666666666</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="L31">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2260,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2268,13 +2322,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3389830508474576</v>
+        <v>0.3818181818181818</v>
       </c>
       <c r="C32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2286,19 +2340,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>80</v>
       </c>
       <c r="K32">
-        <v>0.5393258426966292</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="L32">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2310,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2318,13 +2372,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3375</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="C33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2336,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>81</v>
       </c>
       <c r="K33">
-        <v>0.5357142857142857</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2360,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2368,13 +2422,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3111111111111111</v>
+        <v>0.3691275167785235</v>
       </c>
       <c r="C34">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2386,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>82</v>
       </c>
       <c r="K34">
-        <v>0.525</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>202</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2410,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2418,13 +2472,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2987012987012987</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="C35">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2436,19 +2490,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>83</v>
       </c>
       <c r="K35">
-        <v>0.515625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L35">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M35">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2460,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2468,37 +2522,37 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2908366533864542</v>
+        <v>0.3376623376623377</v>
       </c>
       <c r="C36">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E36">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>178</v>
+        <v>51</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>84</v>
       </c>
       <c r="K36">
-        <v>0.502092050209205</v>
+        <v>0.5661016949152542</v>
       </c>
       <c r="L36">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="M36">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2510,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2518,13 +2572,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2745098039215687</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="C37">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2536,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K37">
-        <v>0.5</v>
+        <v>0.550561797752809</v>
       </c>
       <c r="L37">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="M37">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2560,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2568,13 +2622,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2321428571428572</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C38">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2586,19 +2640,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>86</v>
       </c>
       <c r="K38">
-        <v>0.4931506849315068</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2610,7 +2664,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2618,13 +2672,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1689008042895442</v>
+        <v>0.3111111111111111</v>
       </c>
       <c r="C39">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="D39">
-        <v>63</v>
+        <v>28</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2636,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>310</v>
+        <v>62</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>87</v>
       </c>
       <c r="K39">
-        <v>0.4871794871794872</v>
+        <v>0.5355648535564853</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2660,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>40</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2668,13 +2722,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1204819277108434</v>
+        <v>0.275</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2686,19 +2740,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K40">
-        <v>0.459016393442623</v>
+        <v>0.5342465753424658</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="M40">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2710,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2718,37 +2772,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01226993865030675</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="C41">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E41">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>0.41</v>
+        <v>1</v>
       </c>
       <c r="G41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>1127</v>
+        <v>186</v>
       </c>
       <c r="J41" s="1" t="s">
         <v>89</v>
       </c>
       <c r="K41">
-        <v>0.4571428571428571</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2760,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2768,37 +2822,37 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.008534136546184739</v>
+        <v>0.1554959785522788</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D42">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="E42">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>1975</v>
+        <v>315</v>
       </c>
       <c r="J42" s="1" t="s">
         <v>90</v>
       </c>
       <c r="K42">
-        <v>0.4307692307692308</v>
+        <v>0.5256410256410257</v>
       </c>
       <c r="L42">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="M42">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2818,37 +2872,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.007712944332662642</v>
+        <v>0.007378889958293231</v>
       </c>
       <c r="C43">
         <v>23</v>
       </c>
       <c r="D43">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="E43">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="F43">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>2959</v>
+        <v>3094</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>91</v>
       </c>
       <c r="K43">
-        <v>0.3829787234042553</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="L43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M43">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2860,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2868,37 +2922,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.007694773966014748</v>
+        <v>0.006107906345436036</v>
       </c>
       <c r="C44">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D44">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="E44">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="F44">
-        <v>0.23</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>3095</v>
+        <v>2929</v>
       </c>
       <c r="J44" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K44">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="L44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2910,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2918,13 +2972,13 @@
         <v>93</v>
       </c>
       <c r="K45">
-        <v>0.2711864406779661</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="M45">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2936,7 +2990,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2944,13 +2998,13 @@
         <v>94</v>
       </c>
       <c r="K46">
-        <v>0.2711864406779661</v>
+        <v>0.4714285714285714</v>
       </c>
       <c r="L46">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2962,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2970,13 +3024,13 @@
         <v>95</v>
       </c>
       <c r="K47">
-        <v>0.25</v>
+        <v>0.46875</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2988,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2996,13 +3050,13 @@
         <v>96</v>
       </c>
       <c r="K48">
-        <v>0.2047244094488189</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3014,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>101</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -3022,13 +3076,13 @@
         <v>97</v>
       </c>
       <c r="K49">
-        <v>0.1818181818181818</v>
+        <v>0.4</v>
       </c>
       <c r="L49">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3040,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>342</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -3048,13 +3102,13 @@
         <v>98</v>
       </c>
       <c r="K50">
-        <v>0.1789473684210526</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="L50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3066,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>78</v>
+        <v>37</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -3074,25 +3128,25 @@
         <v>99</v>
       </c>
       <c r="K51">
-        <v>0.1711711711711712</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L51">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N51">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O51">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P51" t="b">
         <v>1</v>
       </c>
       <c r="Q51">
-        <v>92</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -3100,13 +3154,13 @@
         <v>100</v>
       </c>
       <c r="K52">
-        <v>0.1634615384615385</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="L52">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="M52">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3118,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>348</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -3126,13 +3180,13 @@
         <v>101</v>
       </c>
       <c r="K53">
-        <v>0.1584158415841584</v>
+        <v>0.2362204724409449</v>
       </c>
       <c r="L53">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M53">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3144,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -3152,7 +3206,7 @@
         <v>102</v>
       </c>
       <c r="K54">
-        <v>0.1530612244897959</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L54">
         <v>15</v>
@@ -3170,7 +3224,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -3178,13 +3232,13 @@
         <v>103</v>
       </c>
       <c r="K55">
-        <v>0.1450381679389313</v>
+        <v>0.1978021978021978</v>
       </c>
       <c r="L55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M55">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3196,7 +3250,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>112</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -3204,13 +3258,13 @@
         <v>104</v>
       </c>
       <c r="K56">
-        <v>0.1428571428571428</v>
+        <v>0.1889952153110048</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3222,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>78</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -3230,25 +3284,25 @@
         <v>105</v>
       </c>
       <c r="K57">
-        <v>0.1348837209302326</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="L57">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M57">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q57">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -3256,13 +3310,13 @@
         <v>106</v>
       </c>
       <c r="K58">
-        <v>0.1348837209302326</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L58">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M58">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3274,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>186</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -3282,13 +3336,13 @@
         <v>107</v>
       </c>
       <c r="K59">
-        <v>0.1272727272727273</v>
+        <v>0.1682692307692308</v>
       </c>
       <c r="L59">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="M59">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3300,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>144</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -3308,13 +3362,13 @@
         <v>108</v>
       </c>
       <c r="K60">
-        <v>0.119496855345912</v>
+        <v>0.1649484536082474</v>
       </c>
       <c r="L60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M60">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3326,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>140</v>
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -3334,25 +3388,25 @@
         <v>109</v>
       </c>
       <c r="K61">
-        <v>0.1143497757847534</v>
+        <v>0.1621621621621622</v>
       </c>
       <c r="L61">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="M61">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O61">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>790</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -3360,25 +3414,25 @@
         <v>110</v>
       </c>
       <c r="K62">
-        <v>0.1042944785276074</v>
+        <v>0.1615384615384615</v>
       </c>
       <c r="L62">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M62">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="N62">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="O62">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P62" t="b">
         <v>1</v>
       </c>
       <c r="Q62">
-        <v>292</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -3386,13 +3440,13 @@
         <v>111</v>
       </c>
       <c r="K63">
-        <v>0.1006289308176101</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M63">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3404,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>143</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -3412,25 +3466,25 @@
         <v>112</v>
       </c>
       <c r="K64">
-        <v>0.09883720930232558</v>
+        <v>0.154320987654321</v>
       </c>
       <c r="L64">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>155</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -3438,25 +3492,25 @@
         <v>113</v>
       </c>
       <c r="K65">
-        <v>0.09777777777777778</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="L65">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="M65">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="N65">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="O65">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P65" t="b">
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>812</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -3464,25 +3518,25 @@
         <v>114</v>
       </c>
       <c r="K66">
-        <v>0.09297520661157024</v>
+        <v>0.1485148514851485</v>
       </c>
       <c r="L66">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="N66">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>439</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -3490,25 +3544,25 @@
         <v>115</v>
       </c>
       <c r="K67">
-        <v>0.09259259259259259</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L67">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -3516,13 +3570,13 @@
         <v>116</v>
       </c>
       <c r="K68">
-        <v>0.0782608695652174</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -3534,7 +3588,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>212</v>
+        <v>282</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -3542,337 +3596,753 @@
         <v>117</v>
       </c>
       <c r="K69">
-        <v>0.07716049382716049</v>
+        <v>0.1376146788990826</v>
       </c>
       <c r="L69">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="M69">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>598</v>
+        <v>94</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="K70">
-        <v>0.07102539981185324</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="L70">
-        <v>151</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>168</v>
+        <v>23</v>
       </c>
       <c r="N70">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1975</v>
+        <v>149</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K71">
-        <v>0.07027027027027027</v>
+        <v>0.1314553990610329</v>
       </c>
       <c r="L71">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M71">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>172</v>
+        <v>185</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K72">
-        <v>0.06535947712418301</v>
+        <v>0.1228070175438596</v>
       </c>
       <c r="L72">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M72">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N72">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="O72">
-        <v>0.08999999999999997</v>
+        <v>0.12</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>286</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K73">
-        <v>0.05889145496535797</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L73">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M73">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="N73">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>815</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K74">
-        <v>0.05752212389380531</v>
+        <v>0.1209677419354839</v>
       </c>
       <c r="L74">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M74">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N74">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>213</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K75">
-        <v>0.05639097744360902</v>
+        <v>0.1177130044843049</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="M75">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="N75">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O75">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>251</v>
+        <v>787</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K76">
+        <v>0.108695652173913</v>
+      </c>
+      <c r="L76">
+        <v>15</v>
+      </c>
+      <c r="M76">
+        <v>15</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q76">
         <v>123</v>
-      </c>
-      <c r="K76">
-        <v>0.04626334519572953</v>
-      </c>
-      <c r="L76">
-        <v>13</v>
-      </c>
-      <c r="M76">
-        <v>13</v>
-      </c>
-      <c r="N76">
-        <v>1</v>
-      </c>
-      <c r="O76">
-        <v>0</v>
-      </c>
-      <c r="P76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>268</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="K77">
-        <v>0.04053177691309987</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L77">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="M77">
-        <v>148</v>
+        <v>19</v>
       </c>
       <c r="N77">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>2959</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K78">
-        <v>0.03556485355648536</v>
+        <v>0.09555555555555556</v>
       </c>
       <c r="L78">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="M78">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="N78">
-        <v>0.74</v>
+        <v>0.99</v>
       </c>
       <c r="O78">
-        <v>0.26</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>922</v>
+        <v>814</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K79">
-        <v>0.02831858407079646</v>
+        <v>0.09170305676855896</v>
       </c>
       <c r="L79">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N79">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="O79">
-        <v>0.11</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>549</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>49</v>
+        <v>128</v>
       </c>
       <c r="K80">
-        <v>0.02581051306263771</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L80">
-        <v>82</v>
+        <v>194</v>
       </c>
       <c r="M80">
-        <v>106</v>
+        <v>203</v>
       </c>
       <c r="N80">
-        <v>0.77</v>
+        <v>0.96</v>
       </c>
       <c r="O80">
-        <v>0.23</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>3095</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="K81">
-        <v>0.01743679163034002</v>
+        <v>0.0898876404494382</v>
       </c>
       <c r="L81">
+        <v>24</v>
+      </c>
+      <c r="M81">
+        <v>24</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K82">
+        <v>0.08453608247422681</v>
+      </c>
+      <c r="L82">
+        <v>41</v>
+      </c>
+      <c r="M82">
+        <v>42</v>
+      </c>
+      <c r="N82">
+        <v>0.98</v>
+      </c>
+      <c r="O82">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K83">
+        <v>0.08243727598566308</v>
+      </c>
+      <c r="L83">
+        <v>23</v>
+      </c>
+      <c r="M83">
+        <v>25</v>
+      </c>
+      <c r="N83">
+        <v>0.92</v>
+      </c>
+      <c r="O83">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K84">
+        <v>0.08176100628930817</v>
+      </c>
+      <c r="L84">
+        <v>13</v>
+      </c>
+      <c r="M84">
+        <v>13</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K85">
+        <v>0.08143322475570032</v>
+      </c>
+      <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <v>26</v>
+      </c>
+      <c r="N85">
+        <v>0.96</v>
+      </c>
+      <c r="O85">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P85" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K86">
+        <v>0.07596899224806201</v>
+      </c>
+      <c r="L86">
+        <v>49</v>
+      </c>
+      <c r="M86">
+        <v>54</v>
+      </c>
+      <c r="N86">
+        <v>0.91</v>
+      </c>
+      <c r="O86">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K87">
+        <v>0.07167630057803469</v>
+      </c>
+      <c r="L87">
+        <v>62</v>
+      </c>
+      <c r="M87">
+        <v>64</v>
+      </c>
+      <c r="N87">
+        <v>0.97</v>
+      </c>
+      <c r="O87">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K88">
+        <v>0.06278026905829596</v>
+      </c>
+      <c r="L88">
+        <v>14</v>
+      </c>
+      <c r="M88">
+        <v>16</v>
+      </c>
+      <c r="N88">
+        <v>0.88</v>
+      </c>
+      <c r="O88">
+        <v>0.12</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K89">
+        <v>0.05797101449275362</v>
+      </c>
+      <c r="L89">
         <v>20</v>
       </c>
-      <c r="M81">
-        <v>34</v>
-      </c>
-      <c r="N81">
-        <v>0.59</v>
-      </c>
-      <c r="O81">
-        <v>0.41</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1127</v>
+      <c r="M89">
+        <v>24</v>
+      </c>
+      <c r="N89">
+        <v>0.83</v>
+      </c>
+      <c r="O89">
+        <v>0.17</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K90">
+        <v>0.05531914893617021</v>
+      </c>
+      <c r="L90">
+        <v>13</v>
+      </c>
+      <c r="M90">
+        <v>15</v>
+      </c>
+      <c r="N90">
+        <v>0.87</v>
+      </c>
+      <c r="O90">
+        <v>0.13</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K91">
+        <v>0.05179669796050502</v>
+      </c>
+      <c r="L91">
+        <v>160</v>
+      </c>
+      <c r="M91">
+        <v>178</v>
+      </c>
+      <c r="N91">
+        <v>0.9</v>
+      </c>
+      <c r="O91">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="K92">
+        <v>0.04248704663212435</v>
+      </c>
+      <c r="L92">
+        <v>41</v>
+      </c>
+      <c r="M92">
+        <v>44</v>
+      </c>
+      <c r="N92">
+        <v>0.93</v>
+      </c>
+      <c r="O92">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K93">
+        <v>0.04248366013071896</v>
+      </c>
+      <c r="L93">
+        <v>13</v>
+      </c>
+      <c r="M93">
+        <v>13</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q93">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K94">
+        <v>0.03531598513011153</v>
+      </c>
+      <c r="L94">
+        <v>19</v>
+      </c>
+      <c r="M94">
+        <v>26</v>
+      </c>
+      <c r="N94">
+        <v>0.73</v>
+      </c>
+      <c r="O94">
+        <v>0.27</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95">
+        <v>0.03356890459363958</v>
+      </c>
+      <c r="L95">
+        <v>19</v>
+      </c>
+      <c r="M95">
+        <v>20</v>
+      </c>
+      <c r="N95">
+        <v>0.95</v>
+      </c>
+      <c r="O95">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="96" spans="10:17">
+      <c r="J96" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K96">
+        <v>0.02643171806167401</v>
+      </c>
+      <c r="L96">
+        <v>84</v>
+      </c>
+      <c r="M96">
+        <v>107</v>
+      </c>
+      <c r="N96">
+        <v>0.79</v>
+      </c>
+      <c r="O96">
+        <v>0.21</v>
+      </c>
+      <c r="P96" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q96">
+        <v>3094</v>
+      </c>
+    </row>
+    <row r="97" spans="10:17">
+      <c r="J97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="K97">
+        <v>0.02422145328719723</v>
+      </c>
+      <c r="L97">
+        <v>28</v>
+      </c>
+      <c r="M97">
+        <v>33</v>
+      </c>
+      <c r="N97">
+        <v>0.85</v>
+      </c>
+      <c r="O97">
+        <v>0.15</v>
+      </c>
+      <c r="P97" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q97">
+        <v>1128</v>
       </c>
     </row>
   </sheetData>
